--- a/File/customerDedupe.xlsx
+++ b/File/customerDedupe.xlsx
@@ -58,7 +58,7 @@
     <t xml:space="preserve">TC_02</t>
   </si>
   <si>
-    <t xml:space="preserve">First Name is not present</t>
+    <t xml:space="preserve">Dedupe- Validating the senario when First name is empty </t>
   </si>
   <si>
     <t xml:space="preserve">N/A</t>
@@ -79,7 +79,7 @@
     <t xml:space="preserve">TC_03</t>
   </si>
   <si>
-    <t xml:space="preserve">Last name is not Present</t>
+    <t xml:space="preserve">Dedupe- Validating the senario when Last name is empty </t>
   </si>
   <si>
     <t xml:space="preserve">Nikhil</t>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">TC_04</t>
   </si>
   <si>
-    <t xml:space="preserve">Father Name is not Present</t>
+    <t xml:space="preserve">Dedupe- Validating the senario when Father name is empty </t>
   </si>
   <si>
     <t xml:space="preserve">Please enter father name</t>
@@ -100,7 +100,7 @@
     <t xml:space="preserve">TC_05</t>
   </si>
   <si>
-    <t xml:space="preserve">DOB is not Present</t>
+    <t xml:space="preserve">Dedupe- Validating the senario when DOB is empty </t>
   </si>
   <si>
     <t xml:space="preserve">N/a</t>
@@ -112,7 +112,7 @@
     <t xml:space="preserve">TC_06</t>
   </si>
   <si>
-    <t xml:space="preserve">Mobile number is not present</t>
+    <t xml:space="preserve">Dedupe- Validating the senario when Mobile number is empty </t>
   </si>
   <si>
     <t xml:space="preserve">Please enter mobile number</t>
@@ -121,7 +121,7 @@
     <t xml:space="preserve">TC_07</t>
   </si>
   <si>
-    <t xml:space="preserve">Passing invalid Mobile number</t>
+    <t xml:space="preserve">Dedupe- Validating the senario when Invalid Mobile number is passed</t>
   </si>
   <si>
     <t xml:space="preserve">98895ed</t>
@@ -133,7 +133,7 @@
     <t xml:space="preserve">TC_08</t>
   </si>
   <si>
-    <t xml:space="preserve">Passing mobile number less than 10 digit</t>
+    <t xml:space="preserve">Dedupe- Validating the senario when Mobile number less than 10 digit is passed</t>
   </si>
   <si>
     <t xml:space="preserve">9889545</t>
@@ -142,7 +142,7 @@
     <t xml:space="preserve">TC_09</t>
   </si>
   <si>
-    <t xml:space="preserve">Passing Mobile number more than 10 digit</t>
+    <t xml:space="preserve">Dedupe- Validating the senario when Mobile number more than 10 digit is passed</t>
   </si>
   <si>
     <t xml:space="preserve">9889539669234</t>
@@ -154,7 +154,7 @@
     <t xml:space="preserve">TC_10</t>
   </si>
   <si>
-    <t xml:space="preserve">Passing Invalid PAN Number</t>
+    <t xml:space="preserve">Dedupe- Validating the Senario when Invalid PAN Number is passed</t>
   </si>
   <si>
     <t xml:space="preserve">BQTPJ56</t>
@@ -166,7 +166,7 @@
     <t xml:space="preserve">TC_01</t>
   </si>
   <si>
-    <t xml:space="preserve">validating the Positive journey</t>
+    <t xml:space="preserve">Dedupe- Validating the positive senario of Customer dedupe</t>
   </si>
 </sst>
 </file>
@@ -285,10 +285,10 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.92"/>
@@ -576,7 +576,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>39</v>
       </c>
